--- a/diagrama_projeto.xlsx
+++ b/diagrama_projeto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ylsan\projetos_portfolio\20230223_analise_gasolina_ipca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F403CAFB-3D35-496A-B7CA-4F06DA8171B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C82ACB-5225-4BFE-8500-45A5D68FEBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0DEEDAF1-1896-4878-AAFC-F4924FD8857B}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Pasta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>origem_dados</t>
   </si>
@@ -53,12 +50,30 @@
   <si>
     <t>Arquivo principal</t>
   </si>
+  <si>
+    <t>Pastas do repositório do projeto</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Análise do preço do litro da gasolina, ajustado à inflação
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t>Estrutura do projeto e relações de dependência</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +96,24 @@
     <font>
       <sz val="8"/>
       <color theme="0"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF00B0F0"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -111,7 +144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -136,15 +169,6 @@
       <top/>
       <bottom style="thin">
         <color theme="3" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="3" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -192,6 +216,26 @@
     <border>
       <left/>
       <right style="thin">
+        <color theme="3" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
         <color theme="3" tint="0.39994506668294322"/>
       </right>
       <top/>
@@ -200,33 +244,38 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="3" tint="-0.24994659260841701"/>
-      </right>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.59996337778862885"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3" tint="0.39994506668294322"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -234,16 +283,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -252,8 +313,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -283,13 +344,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2371724</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1010284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3919724</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1730284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -369,13 +430,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>704851</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1010284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2019301</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1730284</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -443,13 +504,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3933825</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>2310675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -517,13 +578,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3919725</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1081950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -591,13 +652,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362076</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1730283</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1950674</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -650,13 +711,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3145724</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1730284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3145725</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -709,13 +770,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3919725</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>593573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2251401</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>1590247</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>721950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -735,8 +796,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5062725" y="1753138"/>
-          <a:ext cx="2911959" cy="2662855"/>
+          <a:off x="4872225" y="2532191"/>
+          <a:ext cx="2388198" cy="2660906"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -771,13 +832,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3933825</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>593573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2251401</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>1590247</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1950675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -797,8 +858,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5076825" y="1753138"/>
-          <a:ext cx="2897859" cy="3891580"/>
+          <a:off x="4886325" y="2532191"/>
+          <a:ext cx="2374098" cy="3889631"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -832,14 +893,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2258451</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>1597297</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1523392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3806451</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>3145297</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2243392</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -855,7 +916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981734" y="2682957"/>
+          <a:off x="7267473" y="3462010"/>
           <a:ext cx="1548000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -896,7 +957,7 @@
               </a:solidFill>
               <a:latin typeface="Bahnschrift" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>fato_gasolina.sql</a:t>
+            <a:t>preco_gasolina.sql</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -906,14 +967,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2251401</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>1590247</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>233573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3813501</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>3152347</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>953573</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -929,7 +990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7974684" y="1393138"/>
+          <a:off x="7260423" y="2172191"/>
           <a:ext cx="1562100" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1007,14 +1068,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2258451</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>1597297</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>975696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3806451</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>3145297</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1695696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1030,7 +1091,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7981734" y="4669739"/>
+          <a:off x="7267473" y="5446843"/>
           <a:ext cx="1548000" cy="720000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1082,13 +1143,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1362076</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>803003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1363055</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1010284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1141,13 +1202,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3145724</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>827851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3149512</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1010284</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1200,13 +1261,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2391602</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>108255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3939602</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>828549</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1222,7 +1283,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3344102" y="971108"/>
+          <a:off x="3344102" y="2405461"/>
           <a:ext cx="1548000" cy="720294"/>
           <a:chOff x="3576015" y="1218130"/>
           <a:chExt cx="1548000" cy="720294"/>
@@ -1360,13 +1421,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>581020</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>108255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2129020</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>828255</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1382,7 +1443,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1533520" y="971108"/>
+          <a:off x="1533520" y="2405461"/>
           <a:ext cx="1548000" cy="720000"/>
           <a:chOff x="1848263" y="1177221"/>
           <a:chExt cx="1548000" cy="720000"/>
@@ -1535,13 +1596,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>4552</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1874364</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1225827</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2442399</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1557,7 +1618,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="957052" y="2737217"/>
+          <a:off x="957052" y="4171570"/>
           <a:ext cx="1221275" cy="568035"/>
           <a:chOff x="1147552" y="2984231"/>
           <a:chExt cx="1221275" cy="568035"/>
@@ -1710,13 +1771,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1050027</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2158382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>1950675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1770,14 +1831,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3032451</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>2371297</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>953573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3032451</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>2371297</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>1523392</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1796,7 +1857,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8755734" y="2113138"/>
+          <a:off x="8041473" y="2892191"/>
           <a:ext cx="0" cy="569819"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1829,14 +1890,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3032451</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:colOff>2371297</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>2243392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3032451</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>2371297</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>975696</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1855,8 +1916,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8755734" y="3402957"/>
-          <a:ext cx="0" cy="1266782"/>
+          <a:off x="8041473" y="4182010"/>
+          <a:ext cx="0" cy="1264833"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2188,7 +2249,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2197,66 +2258,97 @@
     <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="90" style="1" customWidth="1"/>
+    <col min="4" max="5" width="70.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="0.85546875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+    <row r="2" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="10" t="s">
+    <row r="3" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="2:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+    </row>
+    <row r="12" spans="2:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="2:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="3">
+    <mergeCell ref="B3:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>